--- a/documents/classes.xlsx
+++ b/documents/classes.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chats\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5ACF02-5539-4807-BCD1-43AB40EA76A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A9B4EC-B2AF-48B0-B67E-F76C7E129B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="3465" windowWidth="18000" windowHeight="9360" xr2:uid="{C1190393-C72C-499D-B5C0-42E370606FD0}"/>
+    <workbookView xWindow="21885" yWindow="1365" windowWidth="15375" windowHeight="7785" xr2:uid="{C1190393-C72C-499D-B5C0-42E370606FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>rolamentos</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>equipament</t>
+  </si>
+  <si>
+    <t>classe</t>
+  </si>
+  <si>
+    <t>Contatos elétricos</t>
+  </si>
+  <si>
+    <t>Disjuntores elétricos de caixa moldada</t>
+  </si>
+  <si>
+    <t>Circuito magnético</t>
+  </si>
+  <si>
+    <t>Circuito dielétrico</t>
   </si>
 </sst>
 </file>
@@ -492,108 +507,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFBE2DD-D146-4E4B-B18A-FC4693C24B24}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{9CFBE2DD-D146-4E4B-B18A-FC4693C24B24}"/>
+  <autoFilter ref="B1:C1" xr:uid="{9CFBE2DD-D146-4E4B-B18A-FC4693C24B24}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/documents/classes.xlsx
+++ b/documents/classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chats\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A9B4EC-B2AF-48B0-B67E-F76C7E129B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A274A3C-E99F-4E12-8B24-582712604E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21885" yWindow="1365" windowWidth="15375" windowHeight="7785" xr2:uid="{C1190393-C72C-499D-B5C0-42E370606FD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C1190393-C72C-499D-B5C0-42E370606FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>rolamentos</t>
   </si>
@@ -75,18 +75,9 @@
     <t>caixa engrenagem</t>
   </si>
   <si>
-    <t>reservatório óleo, bomba óleo, filtro óleo, radiador óleo, trocador óleo, válvula óleo, sensor óleo, tubulação óleo, respiro óleo</t>
-  </si>
-  <si>
     <t>corrente, acionamento corrente</t>
   </si>
   <si>
-    <t>polias V, correia V, tensionadores V, acoplamentos V, esticadores V, redutores V, suportes V</t>
-  </si>
-  <si>
-    <t>ventilador, exaustor, soprador</t>
-  </si>
-  <si>
     <t>rolamento</t>
   </si>
   <si>
@@ -115,6 +106,27 @@
   </si>
   <si>
     <t>Circuito dielétrico</t>
+  </si>
+  <si>
+    <t>reservatório óleo, bomba óleo, filtro óleo, radiador óleo, trocador óleo, válvula óleo, sensor óleo, tubulação óleo, respiro óleo, óleo lubrificante, sistema óleo</t>
+  </si>
+  <si>
+    <t>polias V, correia V, tensionadores V, acoplamentos V, esticadores V, redutores V, suportes V, correias V</t>
+  </si>
+  <si>
+    <t>ventilador, exaustor, soprador, sistema ventiladores</t>
+  </si>
+  <si>
+    <t>Interruptor, Relé, Contator, Conector, Chave seletora, Ponte retificadora, Tomada elétrica, Fusível, contatos eletricos</t>
+  </si>
+  <si>
+    <t>Disjuntor, caixa moldada, disjuntores elétricos</t>
+  </si>
+  <si>
+    <t>Transformador, Indutor, Bobina ignição, Núcleo ferrite, Solenoide, Eletroímã, Motor elétrico, circuito magnético</t>
+  </si>
+  <si>
+    <t>Capacitor, Isolador elétrico, Cabo coaxial, Filtro linha, Material isolante, Dielétrico capacitor, circuito Dielétrico</t>
   </si>
 </sst>
 </file>
@@ -510,24 +522,24 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -549,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -560,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -571,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -593,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -604,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -615,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -626,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -645,7 +657,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -653,7 +668,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -661,7 +679,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -669,7 +690,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/documents/classes.xlsx
+++ b/documents/classes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chats\chatbot_hipotese\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A274A3C-E99F-4E12-8B24-582712604E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC7573B-07FC-4238-BE69-D9E3C7D19756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C1190393-C72C-499D-B5C0-42E370606FD0}"/>
   </bookViews>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFBE2DD-D146-4E4B-B18A-FC4693C24B24}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/classes.xlsx
+++ b/documents/classes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herik\OneDrive\Área de Trabalho\chatbot_hipotese\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC7573B-07FC-4238-BE69-D9E3C7D19756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064D5266-6DAD-42A2-A803-5A6053BCB21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C1190393-C72C-499D-B5C0-42E370606FD0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1190393-C72C-499D-B5C0-42E370606FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
